--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3547.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3547.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.840073815376333</v>
+        <v>0.4156708121299744</v>
       </c>
       <c r="B1">
-        <v>1.818065260226374</v>
+        <v>0.4032054841518402</v>
       </c>
       <c r="C1">
-        <v>1.878053355423657</v>
+        <v>0.4150528013706207</v>
       </c>
       <c r="D1">
-        <v>2.504332389365827</v>
+        <v>0.5502541661262512</v>
       </c>
       <c r="E1">
-        <v>3.603721776638842</v>
+        <v>0.708649754524231</v>
       </c>
     </row>
   </sheetData>
